--- a/3.1-CS-4396.001/Grades.xlsx
+++ b/3.1-CS-4396.001/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\3.1-CS-4396.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A65AD3-B230-4AC5-8BF0-919A7EEAF070}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF9542-56CE-4752-AD60-C82AC7E267EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="960" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>0.74199999999999999</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>7.6000000000000012E-2</v>
+        <v>5.6000000000000008E-2</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.81800000000000006</v>
+        <v>0.69800000000000006</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="17"/>

--- a/3.1-CS-4396.001/Grades.xlsx
+++ b/3.1-CS-4396.001/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\3.1-CS-4396.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF9542-56CE-4752-AD60-C82AC7E267EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D061DB-C3E0-43A0-8E7F-5FF454FFE621}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>0.64200000000000002</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>5.6000000000000008E-2</v>
+        <v>9.6000000000000016E-2</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.69800000000000006</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="17"/>

--- a/3.1-CS-4396.001/Grades.xlsx
+++ b/3.1-CS-4396.001/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\3.1-CS-4396.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D061DB-C3E0-43A0-8E7F-5FF454FFE621}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8079D31D-9AA5-48B0-A126-71647CB17941}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="960" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>0.72199999999999998</v>
+        <v>0.72457142857142864</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>9.6000000000000016E-2</v>
+        <v>5.6000000000000008E-2</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.81799999999999995</v>
+        <v>0.78057142857142869</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="17"/>
@@ -949,9 +949,7 @@
       <c r="C15" s="15">
         <v>1</v>
       </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="10"/>
       <c r="F15" s="17"/>
       <c r="G15" s="10"/>
